--- a/docs/02 - Athos - Carpeta de Proyecto/Documentacion auxiliar/Graficos Factibilidad.xlsx
+++ b/docs/02 - Athos - Carpeta de Proyecto/Documentacion auxiliar/Graficos Factibilidad.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mis Documentos\ORT Analista de Sistemas\3° 2°\Integración de Sistemas\is\docs\02 - Athos - Carpeta de Proyecto\Documentacion auxiliar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B440EF68-EF2D-4EE8-BEC4-A571AC557654}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3B66BB0-C3BD-4782-81FB-249599F024F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{D94C2F8D-8B1F-420D-B87C-1FEE7AEF4294}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{D94C2F8D-8B1F-420D-B87C-1FEE7AEF4294}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Mes 1</t>
   </si>
@@ -113,6 +115,15 @@
   <si>
     <t>Balance</t>
   </si>
+  <si>
+    <t>Cuota</t>
+  </si>
+  <si>
+    <t>Tasa impuestos</t>
+  </si>
+  <si>
+    <t>Monto impuestos</t>
+  </si>
 </sst>
 </file>
 
@@ -189,18 +200,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
+    <cellStyle name="40% - Énfasis1" xfId="1" builtinId="31"/>
+    <cellStyle name="40% - Énfasis4" xfId="2" builtinId="43"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -219,7 +231,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -281,7 +293,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -346,7 +358,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$2</c:f>
+              <c:f>Sheet2!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -397,7 +409,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$14</c:f>
+              <c:f>Sheet2!$A$4:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -441,7 +453,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$14</c:f>
+              <c:f>Sheet2!$B$4:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -495,7 +507,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$2</c:f>
+              <c:f>Sheet2!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -546,7 +558,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$14</c:f>
+              <c:f>Sheet2!$A$4:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -590,45 +602,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$3:$D$14</c:f>
+              <c:f>Sheet2!$D$4:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>69.795955250000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98</c:v>
+                  <c:v>97.714337349999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137.19999999999999</c:v>
+                  <c:v>136.80007228999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192.07999999999998</c:v>
+                  <c:v>191.52010120599999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>268.91199999999998</c:v>
+                  <c:v>268.12814168839998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>376.47679999999997</c:v>
+                  <c:v>375.37939836375995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>527.06751999999994</c:v>
+                  <c:v>525.53115770926399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>737.89452799999992</c:v>
+                  <c:v>735.74362079296952</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>885.47343359999991</c:v>
+                  <c:v>882.89234495156347</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1062.5681203199999</c:v>
+                  <c:v>1059.4708139418763</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1275.0817443839999</c:v>
+                  <c:v>1271.3649767302513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -644,7 +656,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$2</c:f>
+              <c:f>Sheet2!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -695,7 +707,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$14</c:f>
+              <c:f>Sheet2!$A$4:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -739,45 +751,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$3:$E$14</c:f>
+              <c:f>Sheet2!$E$4:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-6130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6060</c:v>
+                  <c:v>-6060.2040447500003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5962</c:v>
+                  <c:v>-5962.4897074</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5824.8</c:v>
+                  <c:v>-5825.6896351100004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5632.72</c:v>
+                  <c:v>-5634.1695339040007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5363.808</c:v>
+                  <c:v>-5366.0413922156004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4987.3311999999996</c:v>
+                  <c:v>-4990.6619938518406</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4460.26368</c:v>
+                  <c:v>-4465.1308361425763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3722.3691520000002</c:v>
+                  <c:v>-3729.3872153496068</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2836.8957184000001</c:v>
+                  <c:v>-2846.4948703980435</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1774.3275980800001</c:v>
+                  <c:v>-1787.0240564561673</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-499.24585369600027</c:v>
+                  <c:v>-515.65907972591594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,7 +855,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="366668072"/>
@@ -934,7 +946,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -966,7 +978,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="366667744"/>
@@ -1008,7 +1020,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1045,7 +1057,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1059,7 +1071,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1121,7 +1133,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1186,7 +1198,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$H$2</c:f>
+              <c:f>Sheet2!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1237,7 +1249,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$G$3:$G$14</c:f>
+              <c:f>Sheet2!$G$4:$G$15</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1281,7 +1293,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$3:$H$14</c:f>
+              <c:f>Sheet2!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1335,7 +1347,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$J$2</c:f>
+              <c:f>Sheet2!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1386,7 +1398,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$G$3:$G$14</c:f>
+              <c:f>Sheet2!$G$4:$G$15</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1430,45 +1442,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$3:$J$14</c:f>
+              <c:f>Sheet2!$J$4:$J$15</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1530.0980932607997</c:v>
+                  <c:v>1525.6379720763014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1836</c:v>
+                  <c:v>1830.6481977000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2203.1999999999998</c:v>
+                  <c:v>2196.7778372399998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2643.8399999999997</c:v>
+                  <c:v>2636.1334046879997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3172.6079999999997</c:v>
+                  <c:v>3163.3600856255998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3807.1295999999993</c:v>
+                  <c:v>3796.0321027507193</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4568.555519999999</c:v>
+                  <c:v>4555.2385233008627</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5025.411071999999</c:v>
+                  <c:v>5010.7623756309495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5527.9521791999996</c:v>
+                  <c:v>5511.8386131940451</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6080.7473971199997</c:v>
+                  <c:v>6063.0224745134492</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6688.8221368320001</c:v>
+                  <c:v>6669.3247219647947</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7357.7043505152005</c:v>
+                  <c:v>7336.257194161275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,7 +1496,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$2</c:f>
+              <c:f>Sheet2!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1535,7 +1547,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$G$3:$G$14</c:f>
+              <c:f>Sheet2!$G$4:$G$15</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1579,45 +1591,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$3:$K$14</c:f>
+              <c:f>Sheet2!$K$4:$K$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>-5099.1477604352003</c:v>
+                <c:pt idx="0">
+                  <c:v>-5120.0211076496144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3263.1477604352003</c:v>
+                  <c:v>-3289.372909949614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1059.9477604352005</c:v>
+                  <c:v>-1092.5950727096142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1583.8922395647992</c:v>
+                  <c:v>1543.5383319783855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4756.5002395647989</c:v>
+                  <c:v>4706.8984176039849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8563.6298395647973</c:v>
+                  <c:v>8502.9305203547046</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13132.185359564795</c:v>
+                  <c:v>13058.169043655567</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18157.596431564794</c:v>
+                  <c:v>18068.931419286517</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23685.548610764796</c:v>
+                  <c:v>23580.770032480563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29766.296007884797</c:v>
+                  <c:v>29643.79250699401</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36455.118144716798</c:v>
+                  <c:v>36313.117228958807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43812.822495232002</c:v>
+                  <c:v>43649.374423120084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1683,7 +1695,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="366668072"/>
@@ -1774,7 +1786,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1806,7 +1818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="366667744"/>
@@ -1848,7 +1860,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1885,7 +1897,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2980,13 +2992,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3016,13 +3028,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3054,7 +3066,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3356,7 +3368,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -3435,13 +3447,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A81575-DB0D-48F6-B5FB-FD408E948C58}">
-  <dimension ref="A2:K15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -3452,534 +3464,561 @@
     <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>2.15</v>
+      </c>
+      <c r="N2">
+        <v>7.2479000000000002E-2</v>
+      </c>
+      <c r="O2">
+        <f>M2*N2</f>
+        <v>0.15582984999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="M3">
+        <f>M2-O2</f>
+        <v>1.99417015</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>-6130</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="5">
         <v>35</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
-        <f>B3+D3</f>
+      <c r="E4" s="6">
+        <f>B4+D4</f>
         <v>-6130</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="2">
         <v>-6130</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="5">
         <v>918</v>
       </c>
-      <c r="J3" s="5">
-        <f>C14*2</f>
-        <v>1530.0980932607997</v>
-      </c>
-      <c r="K3" s="5">
-        <f>E15+H3+J3</f>
-        <v>-5099.1477604352003</v>
+      <c r="J4" s="6">
+        <f>C15*$M$3</f>
+        <v>1525.6379720763014</v>
+      </c>
+      <c r="K4" s="6">
+        <f>E16+H4+J4</f>
+        <v>-5120.0211076496144</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <f>C3*1.4</f>
-        <v>49</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" ref="D4:D12" si="0">C3*2</f>
-        <v>70</v>
-      </c>
-      <c r="E4" s="5">
-        <f>E3+B4+D4</f>
-        <v>-6060</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <f>I3*1.2</f>
-        <v>1101.5999999999999</v>
-      </c>
-      <c r="J4" s="5">
-        <f>I3*2</f>
-        <v>1836</v>
-      </c>
-      <c r="K4" s="2">
-        <f>K3+H4+J4</f>
-        <v>-3263.1477604352003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C10" si="1">C4*1.4</f>
-        <v>68.599999999999994</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" ref="E5:E14" si="2">E4+B5+D5</f>
-        <v>-5962</v>
+        <f>C4*1.4</f>
+        <v>49</v>
+      </c>
+      <c r="D5" s="6">
+        <f>C4*$M$3</f>
+        <v>69.795955250000006</v>
+      </c>
+      <c r="E5" s="6">
+        <f>E4+B5+D5</f>
+        <v>-6060.2040447500003</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="5">
         <f>I4*1.2</f>
-        <v>1321.9199999999998</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" ref="J5:J14" si="3">I4*2</f>
-        <v>2203.1999999999998</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" ref="K5:K14" si="4">K4+H5+J5</f>
-        <v>-1059.9477604352005</v>
+        <v>1101.5999999999999</v>
+      </c>
+      <c r="J5" s="6">
+        <f>I4*$M$3</f>
+        <v>1830.6481977000001</v>
+      </c>
+      <c r="K5" s="6">
+        <f>K4+H5+J5</f>
+        <v>-3289.372909949614</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="1"/>
-        <v>96.039999999999992</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>137.19999999999999</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="2"/>
-        <v>-5824.8</v>
+        <f t="shared" ref="C6:C11" si="0">C5*1.4</f>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" ref="D6:D15" si="1">C5*$M$3</f>
+        <v>97.714337349999994</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" ref="E6:E15" si="2">E5+B6+D6</f>
+        <v>-5962.4897074</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="5">
         <f>I5*1.2</f>
-        <v>1586.3039999999999</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="3"/>
-        <v>2643.8399999999997</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="4"/>
-        <v>1583.8922395647992</v>
+        <v>1321.9199999999998</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" ref="J6:J15" si="3">I5*$M$3</f>
+        <v>2196.7778372399998</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ref="K6:K15" si="4">K5+H6+J6</f>
+        <v>-1092.5950727096142</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>96.039999999999992</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" si="1"/>
-        <v>134.45599999999999</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="0"/>
-        <v>192.07999999999998</v>
-      </c>
-      <c r="E7" s="5">
+        <v>136.80007228999997</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" si="2"/>
-        <v>-5632.72</v>
+        <v>-5825.6896351100004</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="5">
         <f>I6*1.2</f>
-        <v>1903.5647999999997</v>
-      </c>
-      <c r="J7" s="5">
+        <v>1586.3039999999999</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="3"/>
-        <v>3172.6079999999997</v>
-      </c>
-      <c r="K7" s="2">
+        <v>2636.1334046879997</v>
+      </c>
+      <c r="K7" s="6">
         <f t="shared" si="4"/>
-        <v>4756.5002395647989</v>
+        <v>1543.5383319783855</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>134.45599999999999</v>
+      </c>
+      <c r="D8" s="6">
         <f t="shared" si="1"/>
-        <v>188.23839999999998</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>268.91199999999998</v>
-      </c>
-      <c r="E8" s="5">
+        <v>191.52010120599999</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" si="2"/>
-        <v>-5363.808</v>
+        <v>-5634.1695339040007</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="5">
         <f>I7*1.2</f>
-        <v>2284.2777599999995</v>
-      </c>
-      <c r="J8" s="5">
+        <v>1903.5647999999997</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="3"/>
-        <v>3807.1295999999993</v>
-      </c>
-      <c r="K8" s="2">
+        <v>3163.3600856255998</v>
+      </c>
+      <c r="K8" s="6">
         <f t="shared" si="4"/>
-        <v>8563.6298395647973</v>
+        <v>4706.8984176039849</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>188.23839999999998</v>
+      </c>
+      <c r="D9" s="6">
         <f t="shared" si="1"/>
-        <v>263.53375999999997</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>376.47679999999997</v>
-      </c>
-      <c r="E9" s="5">
+        <v>268.12814168839998</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="2"/>
-        <v>-4987.3311999999996</v>
+        <v>-5366.0413922156004</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" ref="I9:I14" si="5">I8*1.1</f>
-        <v>2512.7055359999995</v>
-      </c>
-      <c r="J9" s="5">
+        <f>I8*1.2</f>
+        <v>2284.2777599999995</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="3"/>
-        <v>4568.555519999999</v>
-      </c>
-      <c r="K9" s="2">
+        <v>3796.0321027507193</v>
+      </c>
+      <c r="K9" s="6">
         <f t="shared" si="4"/>
-        <v>13132.185359564795</v>
+        <v>8502.9305203547046</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
       <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>263.53375999999997</v>
+      </c>
+      <c r="D10" s="6">
         <f t="shared" si="1"/>
-        <v>368.94726399999996</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>527.06751999999994</v>
-      </c>
-      <c r="E10" s="5">
+        <v>375.37939836375995</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" si="2"/>
-        <v>-4460.26368</v>
+        <v>-4990.6619938518406</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="I10" s="5">
+        <f t="shared" ref="I10:I15" si="5">I9*1.1</f>
+        <v>2512.7055359999995</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="3"/>
+        <v>4555.2385233008627</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="4"/>
+        <v>13058.169043655567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>368.94726399999996</v>
+      </c>
+      <c r="D11" s="6">
+        <f>C10*$M$3</f>
+        <v>525.53115770926399</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="2"/>
+        <v>-4465.1308361425763</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
         <f t="shared" si="5"/>
         <v>2763.9760895999998</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J11" s="6">
         <f t="shared" si="3"/>
-        <v>5025.411071999999</v>
-      </c>
-      <c r="K10" s="2">
+        <v>5010.7623756309495</v>
+      </c>
+      <c r="K11" s="6">
         <f t="shared" si="4"/>
-        <v>18157.596431564794</v>
+        <v>18068.931419286517</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C11" s="5">
-        <f t="shared" ref="C11:C14" si="6">C10*1.2</f>
+      <c r="C12" s="5">
+        <f>C11*1.2</f>
         <v>442.73671679999995</v>
       </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>737.89452799999992</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D12" s="6">
+        <f t="shared" si="1"/>
+        <v>735.74362079296952</v>
+      </c>
+      <c r="E12" s="6">
         <f t="shared" si="2"/>
-        <v>-3722.3691520000002</v>
-      </c>
-      <c r="G11" s="1" t="s">
+        <v>-3729.3872153496068</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I12" s="5">
         <f t="shared" si="5"/>
         <v>3040.3736985599999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J12" s="6">
         <f t="shared" si="3"/>
-        <v>5527.9521791999996</v>
-      </c>
-      <c r="K11" s="2">
+        <v>5511.8386131940451</v>
+      </c>
+      <c r="K12" s="6">
         <f t="shared" si="4"/>
-        <v>23685.548610764796</v>
+        <v>23580.770032480563</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="5">
-        <f t="shared" si="6"/>
+      <c r="C13" s="5">
+        <f>C12*1.2</f>
         <v>531.28406015999997</v>
       </c>
-      <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>885.47343359999991</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D13" s="6">
+        <f t="shared" si="1"/>
+        <v>882.89234495156347</v>
+      </c>
+      <c r="E13" s="6">
         <f t="shared" si="2"/>
-        <v>-2836.8957184000001</v>
-      </c>
-      <c r="G12" s="1" t="s">
+        <v>-2846.4948703980435</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I13" s="5">
         <f t="shared" si="5"/>
         <v>3344.411068416</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J13" s="6">
         <f t="shared" si="3"/>
-        <v>6080.7473971199997</v>
-      </c>
-      <c r="K12" s="2">
+        <v>6063.0224745134492</v>
+      </c>
+      <c r="K13" s="6">
         <f t="shared" si="4"/>
-        <v>29766.296007884797</v>
+        <v>29643.79250699401</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C13" s="5">
-        <f t="shared" si="6"/>
+      <c r="C14" s="5">
+        <f>C13*1.2</f>
         <v>637.54087219199994</v>
       </c>
-      <c r="D13" s="5">
-        <f t="shared" ref="D13:D14" si="7">C12*2</f>
-        <v>1062.5681203199999</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D14" s="6">
+        <f t="shared" si="1"/>
+        <v>1059.4708139418763</v>
+      </c>
+      <c r="E14" s="6">
         <f t="shared" si="2"/>
-        <v>-1774.3275980800001</v>
-      </c>
-      <c r="G13" s="1" t="s">
+        <v>-1787.0240564561673</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I14" s="5">
         <f t="shared" si="5"/>
         <v>3678.8521752576003</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J14" s="6">
         <f t="shared" si="3"/>
-        <v>6688.8221368320001</v>
-      </c>
-      <c r="K13" s="2">
+        <v>6669.3247219647947</v>
+      </c>
+      <c r="K14" s="6">
         <f t="shared" si="4"/>
-        <v>36455.118144716798</v>
+        <v>36313.117228958807</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="5">
-        <f t="shared" si="6"/>
+      <c r="C15" s="5">
+        <f>C14*1.2</f>
         <v>765.04904663039986</v>
       </c>
-      <c r="D14" s="5">
-        <f t="shared" si="7"/>
-        <v>1275.0817443839999</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>1271.3649767302513</v>
+      </c>
+      <c r="E15" s="6">
         <f t="shared" si="2"/>
-        <v>-499.24585369600027</v>
-      </c>
-      <c r="G14" s="1" t="s">
+        <v>-515.65907972591594</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I15" s="5">
         <f t="shared" si="5"/>
         <v>4046.7373927833605</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J15" s="6">
         <f t="shared" si="3"/>
-        <v>7357.7043505152005</v>
-      </c>
-      <c r="K14" s="2">
+        <v>7336.257194161275</v>
+      </c>
+      <c r="K15" s="6">
         <f t="shared" si="4"/>
-        <v>43812.822495232002</v>
+        <v>43649.374423120084</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3">
-        <f>SUM(B3:B14)</f>
+      <c r="B16" s="3">
+        <f>SUM(B4:B15)</f>
         <v>-6130</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C16" s="5">
         <v>765.04904663039986</v>
       </c>
-      <c r="D15" s="6">
-        <f>SUM(D3:D14)</f>
-        <v>5630.7541463039997</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" ref="E15" si="8">B15+D15</f>
-        <v>-499.24585369600027</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="D16" s="7">
+        <f>SUM(D4:D15)</f>
+        <v>5614.3409202740841</v>
+      </c>
+      <c r="E16" s="6">
+        <f>B16+D16</f>
+        <v>-515.65907972591594</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="3">
-        <f>SUM(H3:H14)</f>
+      <c r="H16" s="3">
+        <f>SUM(H4:H15)</f>
         <v>-6130</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I16" s="5">
         <v>3372.2811606528007</v>
       </c>
-      <c r="J15" s="6">
-        <f>SUM(J3:J14)</f>
-        <v>50442.068348927998</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" ref="K15" si="9">H15+J15</f>
-        <v>44312.068348927998</v>
+      <c r="J16" s="7">
+        <f>SUM(J4:J15)</f>
+        <v>50295.033502846003</v>
+      </c>
+      <c r="K16" s="6">
+        <f>H16+J16</f>
+        <v>44165.033502846003</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A15:E15">
+  <conditionalFormatting sqref="A16:E16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3991,7 +4030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:E15">
+  <conditionalFormatting sqref="A4:E16">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4003,7 +4042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:K15">
+  <conditionalFormatting sqref="H16:K16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4015,7 +4054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:K15">
+  <conditionalFormatting sqref="H4:K16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4027,7 +4066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+  <conditionalFormatting sqref="G16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4039,7 +4078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G15">
+  <conditionalFormatting sqref="G4:G16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
